--- a/tables/CZG_PhenT_Migrat.xlsx
+++ b/tables/CZG_PhenT_Migrat.xlsx
@@ -41,10 +41,10 @@
     <t xml:space="preserve">0.028</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1230</t>
+    <t xml:space="preserve"> 1.532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1254</t>
   </si>
   <si>
     <t xml:space="preserve">Migratmigrant</t>
@@ -56,25 +56,25 @@
     <t xml:space="preserve">0.027</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7454</t>
+    <t xml:space="preserve"> 0.103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7483</t>
   </si>
   <si>
     <t xml:space="preserve">Pvalue</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.054</t>
+    <t xml:space="preserve">-0.052</t>
   </si>
   <si>
     <t xml:space="preserve">0.037</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1433</t>
+    <t xml:space="preserve">-1.426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1539</t>
   </si>
 </sst>
 </file>
